--- a/data/output/Pedido_Semana_07_15022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_semillas.xlsx
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>12</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="8" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>3.95</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S34" s="2" t="n">
         <v>0</v>
@@ -3420,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="8" t="n">
         <v>0</v>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>12</v>
@@ -3582,16 +3582,16 @@
         <v>7</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T38" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" hidden="1">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>4</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="C43" s="5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_semillas.xlsx
@@ -727,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>54.8</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>18.62</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>5.65</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>1.98</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>12</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>3.95</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>4</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>3.95</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>3.8</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>3.95</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>4</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>4</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>4</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>4</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>1.98</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>4</v>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>12</v>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>8</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>3.95</v>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>14</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>2</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>1.98</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>3.95</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>4</v>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>1.98</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>4</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>5.7</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>5.93</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>4</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>9.300000000000001</v>
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>12</v>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>2</v>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>2</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>6</v>
@@ -3481,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>12</v>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>4</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>2</v>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
